--- a/能耗统计_20211122.xlsx
+++ b/能耗统计_20211122.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack_Liu\Document\GIT\Tesla_Model_Y\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E33027-D45A-4A13-A3BA-D70392536454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15577E32-BE77-4F4F-8B67-219F784EAFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8452" yWindow="0" windowWidth="11161" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -295,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,15 +333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7049</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>80161</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>96976</xdr:rowOff>
+      <xdr:colOff>57750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,8 +364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22411" y="2707667"/>
-          <a:ext cx="8865574" cy="2779338"/>
+          <a:off x="0" y="2726011"/>
+          <a:ext cx="8872705" cy="2919716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -661,157 +661,201 @@
     <col min="15" max="15" width="40.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="1" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>85</v>
+        <v>105.1</v>
       </c>
       <c r="C4" s="1">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2">
-        <v>42</v>
+        <v>53.9</v>
       </c>
       <c r="F4" s="3">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="G4" s="1">
-        <v>12.1</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="I4" s="2">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
       </c>
       <c r="K4" s="13">
-        <v>0.28819444444444448</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="L4" s="13">
-        <v>0.37222222222222223</v>
+        <v>0.84861111111111109</v>
       </c>
       <c r="M4" s="14">
-        <v>0.94</v>
+        <v>0.71</v>
       </c>
       <c r="N4" s="15">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>105.1</v>
+        <v>84.9</v>
       </c>
       <c r="C5" s="1">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2">
-        <v>53.9</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G5" s="1">
-        <v>16</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="1">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="I5" s="2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J5" s="2">
-        <v>20</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K5" s="13">
-        <v>0.76736111111111116</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="L5" s="13">
-        <v>0.84861111111111109</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="M5" s="14">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="N5" s="15">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>84.9</v>
       </c>
       <c r="C6" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <v>143</v>
       </c>
       <c r="E6" s="2">
-        <v>53</v>
+        <v>51.1</v>
       </c>
       <c r="F6" s="3">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G6" s="1">
         <v>12.1</v>
@@ -820,42 +864,42 @@
         <v>4.8</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J6" s="2">
-        <v>17.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="K6" s="13">
-        <v>0.28958333333333336</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="L6" s="13">
-        <v>0.35625000000000001</v>
+        <v>0.84236111111111101</v>
       </c>
       <c r="M6" s="14">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
       <c r="N6" s="15">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="C7" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1">
         <v>143</v>
       </c>
       <c r="E7" s="2">
-        <v>51.1</v>
+        <v>51.5</v>
       </c>
       <c r="F7" s="3">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="1">
         <v>12.1</v>
@@ -864,270 +908,226 @@
         <v>4.8</v>
       </c>
       <c r="I7" s="2">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
-        <v>20</v>
+        <v>12.6</v>
       </c>
       <c r="K7" s="13">
-        <v>0.7729166666666667</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="L7" s="13">
-        <v>0.84236111111111101</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="M7" s="14">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="N7" s="15">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>84.8</v>
+        <v>83.9</v>
       </c>
       <c r="C8" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="F8" s="3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="J8" s="2">
-        <v>12.6</v>
+        <v>20</v>
       </c>
       <c r="K8" s="13">
-        <v>0.29097222222222224</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="L8" s="13">
-        <v>0.35902777777777778</v>
+        <v>0.83263888888888893</v>
       </c>
       <c r="M8" s="14">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="N8" s="15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>83.9</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2">
-        <v>51.4</v>
+        <v>57.4</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="G9" s="1">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H9" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I9" s="2">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K9" s="13">
         <v>0.76458333333333339</v>
       </c>
       <c r="L9" s="13">
-        <v>0.83263888888888893</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="M9" s="14">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="N9" s="15">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
-        <v>57.4</v>
+        <v>54.9</v>
       </c>
       <c r="F10" s="3">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="G10" s="1">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
         <v>15</v>
       </c>
-      <c r="J10" s="2">
-        <v>20.399999999999999</v>
-      </c>
       <c r="K10" s="13">
-        <v>0.76458333333333339</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="L10" s="13">
-        <v>0.82500000000000007</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="M10" s="14">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="N10" s="15">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
         <v>85</v>
       </c>
-      <c r="C11" s="1">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1">
-        <v>129</v>
-      </c>
-      <c r="E11" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>15</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0.28819444444444448</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.3520833333333333</v>
-      </c>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>84</v>
-      </c>
-      <c r="C12" s="1">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1">
-        <v>124</v>
-      </c>
-      <c r="E12" s="2">
-        <v>58.4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>19.3</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0.76944444444444438</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0.82916666666666661</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="N12" s="15">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10">
-        <v>85</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="16">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="16">
         <f>150/435</f>
         <v>0.34482758620689657</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N12" s="17">
         <f>64/435</f>
         <v>0.14712643678160919</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O12" t="s">
         <v>14</v>
       </c>
     </row>

--- a/能耗统计_20211122.xlsx
+++ b/能耗统计_20211122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack_Liu\Document\GIT\Tesla_Model_Y\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15577E32-BE77-4F4F-8B67-219F784EAFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18292EC2-7542-4C31-9FD4-AFB1E0A4615F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8452" yWindow="0" windowWidth="11161" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,6 +370,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>621723</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FBB36A-6348-41FB-9275-091B7ED8E390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6702137"/>
+          <a:ext cx="10683587" cy="2009774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -643,7 +704,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
